--- a/R/1.xlsx
+++ b/R/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\excel2ePrime\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A93D7-10B7-4DF4-B0AD-087365C557F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504C3F8-AF83-44F1-84B2-A98D0B0D90F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64C9EB5E-7899-480B-AE8D-980B639420CD}"/>
   </bookViews>
@@ -37,53 +37,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I have/has the doc in my left hand</t>
+    <t>I have/has the doc/pen in my left hand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>She have/has the book on the shelf.</t>
+    <t>I have/has the haha/dog in my left hand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>They have/has the map in their backpack.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have/has the keys in my pocket.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>We have/has the report in the folder.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>He have/has the phone in his hand.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The team have/has the plan in their hands.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>She have/has the ticket in her bag.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>They have/has the contract in their briefcase.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have/has the letter in my mailbox.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>We have/has the solution in our minds.</t>
+    <t>I have/has the dad/penmyass in my left hand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,74 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -228,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -374,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,7 +427,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -555,46 +455,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>

--- a/R/1.xlsx
+++ b/R/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\excel2ePrime\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504C3F8-AF83-44F1-84B2-A98D0B0D90F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A8E6A-C598-4854-8533-66A69F0B7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64C9EB5E-7899-480B-AE8D-980B639420CD}"/>
   </bookViews>
@@ -37,21 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I have/has the doc/pen in my left hand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have/has the haha/dog in my left hand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have/has the dad/penmyass in my left hand</t>
+    <t>I have/has the doc/pen in my left/right hand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +419,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -446,14 +438,10 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/R/1.xlsx
+++ b/R/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\excel2ePrime\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A8E6A-C598-4854-8533-66A69F0B7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D5A27-CB82-465C-A6C9-0376DCE799E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64C9EB5E-7899-480B-AE8D-980B639420CD}"/>
   </bookViews>
@@ -37,13 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I have/has the doc/pen in my left/right hand</t>
+    <t>I am have/has the doc in my left hand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have/has the doc in my left hand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +423,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,7 +442,9 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
